--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_remove/rem5/42/incorrect_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_remove/rem5/42/incorrect_predictions_42.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,12 +471,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Obstacle avoidance unavailable</t>
+          <t>Backward ambient light too low</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5-7</t>
+          <t>11-15</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -487,21 +487,21 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+          <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>After powering off the aircraft, replace the propeller on the beeping ESC</t>
+          <t>Backward obstacle avoidance unavailable</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>9-20</t>
+          <t>5-8</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -521,42 +521,42 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>After powering off the aircraft,</t>
+          <t>After powering off the aircraft, replace the propeller on the beeping ESC</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>9-13</t>
+          <t>9-20</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2. Calibrate Compass Before Takeoff</t>
+          <t>After powering off the aircraft,</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>31-35</t>
+          <t>9-13</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -571,15 +571,65 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Calibrate Compass Before Takeoff</t>
+          <t>Solution: 1. Ensure there are no magnets or metal objects near the aircraft</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>32-35</t>
+          <t>2-14</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2. Calibrate Compass Before Takeoff</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>31-35</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Ensure there are no magnets or metal objects near the aircraft</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4-14</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>False</t>
         </is>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_remove/rem5/42/incorrect_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_remove/rem5/42/incorrect_predictions_42.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,12 +471,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Backward ambient light too low</t>
+          <t>Obstacle avoidance unavailable</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>11-15</t>
+          <t>5-7</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -487,21 +487,21 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Backward obstacle avoidance unavailable</t>
+          <t>After powering off the aircraft, replace the propeller on the beeping ESC</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5-8</t>
+          <t>9-20</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -521,42 +521,42 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>After powering off the aircraft, replace the propeller on the beeping ESC</t>
+          <t>After powering off the aircraft,</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>9-20</t>
+          <t>9-13</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>After powering off the aircraft,</t>
+          <t>2. Calibrate Compass Before Takeoff</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>9-13</t>
+          <t>31-35</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
@@ -571,65 +571,15 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Solution: 1. Ensure there are no magnets or metal objects near the aircraft</t>
+          <t>Calibrate Compass Before Takeoff</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2-14</t>
+          <t>32-35</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
-        <is>
-          <t>Missing</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>2. Calibrate Compass Before Takeoff</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>31-35</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Missing</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Ensure there are no magnets or metal objects near the aircraft</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>4-14</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
         <is>
           <t>False</t>
         </is>
